--- a/data/Mes快速建模测试用例.xlsx
+++ b/data/Mes快速建模测试用例.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="64">
   <si>
     <t>编号</t>
   </si>
@@ -36,7 +36,10 @@
     <t>预置条件</t>
   </si>
   <si>
-    <t>业务关联</t>
+    <t>账号</t>
+  </si>
+  <si>
+    <t>密码</t>
   </si>
   <si>
     <t>操作步骤</t>
@@ -45,18 +48,21 @@
     <t>预期结果</t>
   </si>
   <si>
-    <t>实际结果</t>
-  </si>
-  <si>
-    <t>回归测试</t>
-  </si>
-  <si>
     <t>测试结果</t>
   </si>
   <si>
+    <t>测试次数</t>
+  </si>
+  <si>
     <t>备注</t>
   </si>
   <si>
+    <t>是否执行</t>
+  </si>
+  <si>
+    <t>测试时间</t>
+  </si>
+  <si>
     <t>DL-DLYM-001</t>
   </si>
   <si>
@@ -73,6 +79,9 @@
   </si>
   <si>
     <t>网络正常</t>
+  </si>
+  <si>
+    <t>liuhaotao1015</t>
   </si>
   <si>
     <t>1、账号输入admin
@@ -84,6 +93,12 @@
     <t>登录成功，跳转默认后台管理页面</t>
   </si>
   <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
     <t>DL-DLYM-002</t>
   </si>
   <si>
@@ -97,6 +112,9 @@
   </si>
   <si>
     <t>提示错误的验证码</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
   <si>
     <t>DL-DLYM-003</t>
@@ -227,12 +245,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,15 +272,112 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,39 +391,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,76 +408,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -413,79 +436,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,110 +620,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -627,6 +650,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF00B050"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF8E1F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF00B050"/>
       </left>
@@ -647,9 +681,55 @@
         <color rgb="FF00B050"/>
       </right>
       <top style="thin">
-        <color rgb="FFFF8E1F"/>
+        <color rgb="FF00B050"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF00B050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF00B050"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF00B050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF00B050"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF00B050"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF00B050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF00B050"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF00B050"/>
+      </right>
+      <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -658,15 +738,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -686,27 +757,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -742,11 +807,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -758,10 +829,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -770,137 +841,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -910,14 +981,50 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1267,10 +1374,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1278,11 +1385,12 @@
     <col min="1" max="1" width="20.375" customWidth="1"/>
     <col min="2" max="2" width="12.25" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="7" max="7" width="12.875" customWidth="1"/>
     <col min="8" max="8" width="27.625" customWidth="1"/>
     <col min="9" max="9" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1301,10 +1409,10 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -1316,355 +1424,454 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" ht="54" spans="1:13">
-      <c r="A2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="3" t="s">
+    <row r="2" ht="54" spans="1:15">
+      <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="F2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
+      <c r="G2" s="8">
+        <v>376531877</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="12"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="12"/>
     </row>
-    <row r="3" ht="54" spans="1:13">
-      <c r="A3" s="3" t="s">
+    <row r="3" ht="54" spans="1:15">
+      <c r="A3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="13"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="13"/>
+    </row>
+    <row r="4" ht="54" spans="1:15">
+      <c r="A4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="13"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="13"/>
+    </row>
+    <row r="5" ht="54" spans="1:15">
+      <c r="A5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="15"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="15"/>
+    </row>
+    <row r="6" ht="54" spans="1:15">
+      <c r="A6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="8">
+        <v>376531877</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="I6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="13"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" s="13"/>
+    </row>
+    <row r="7" ht="54" spans="1:15">
+      <c r="A7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="4" t="s">
+      <c r="D7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="11">
+        <v>123456789</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="17"/>
     </row>
-    <row r="4" ht="54" spans="1:13">
-      <c r="A4" s="3" t="s">
+    <row r="8" ht="54" spans="1:15">
+      <c r="A8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="17"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="O8" s="13"/>
+    </row>
+    <row r="9" ht="54" spans="1:15">
+      <c r="A9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="4" t="s">
+      <c r="D9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
+      <c r="G9" s="8">
+        <v>376531877</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="13"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" s="13"/>
     </row>
-    <row r="5" ht="54" spans="1:13">
-      <c r="A5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="3" t="s">
+    <row r="10" ht="54" spans="1:15">
+      <c r="A10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4" t="s">
+      <c r="D10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="13"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="O10" s="13"/>
+    </row>
+    <row r="11" ht="54" spans="1:15">
+      <c r="A11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="13"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O11" s="13"/>
     </row>
-    <row r="6" ht="54" spans="1:13">
-      <c r="A6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="3" t="s">
+    <row r="12" ht="27" spans="1:15">
+      <c r="A12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" ht="54" spans="1:13">
-      <c r="A7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-    </row>
-    <row r="8" ht="54" spans="1:13">
-      <c r="A8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-    </row>
-    <row r="9" ht="54" spans="1:13">
-      <c r="A9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-    </row>
-    <row r="10" ht="54" spans="1:13">
-      <c r="A10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-    </row>
-    <row r="11" ht="54" spans="1:13">
-      <c r="A11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
+      <c r="D12" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="11"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="17"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O12" s="17"/>
     </row>
   </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="测试结果" error="请输入pass或者fail" sqref="K2 K3:K12">
+      <formula1>"pass,fail"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="是否执行" error="请输入Y/N" promptTitle="请输入" prompt="Y,N" sqref="N2 N3 N4 N5 N10 N11 N12 N6:N9">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="优先级" error="请填入P0,P1,P2" sqref="E2:E3 E4:E5 E6:E10 E11:E12">
+      <formula1>"P0,P1,P2"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/data/Mes快速建模测试用例.xlsx
+++ b/data/Mes快速建模测试用例.xlsx
@@ -104,8 +104,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -136,6 +136,20 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,30 +158,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,45 +213,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,30 +228,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,8 +242,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,25 +295,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,19 +451,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,133 +463,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,36 +559,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -613,16 +583,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -645,6 +615,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -653,10 +653,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -665,133 +665,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1174,7 +1174,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>

--- a/data/Mes快速建模测试用例.xlsx
+++ b/data/Mes快速建模测试用例.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12540" windowWidth="28125"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12540" windowWidth="28125"/>
   </bookViews>
   <sheets>
     <sheet name="登录模块用例" sheetId="1" state="visible" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ " numFmtId="166"/>
     <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="167"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="27">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -42,7 +42,7 @@
     <font>
       <name val="Arial"/>
       <charset val="134"/>
-      <color rgb="FF00FF00"/>
+      <color rgb="FF00B050"/>
       <sz val="10"/>
     </font>
     <font>
@@ -63,6 +63,66 @@
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
@@ -72,8 +132,15 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -82,21 +149,13 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="11"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -111,36 +170,15 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -163,51 +201,13 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <name val="Arial"/>
-      <color rgb="00FFFFFF"/>
+      <color rgb="0000B050"/>
       <sz val="10"/>
     </font>
     <font>
@@ -215,31 +215,6 @@
       <color rgb="00FF0000"/>
       <sz val="10"/>
     </font>
-    <font>
-      <name val="Arial"/>
-      <color rgb="0000FF00"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <color rgb="00FFFF99"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <color rgb="00CCFFCC"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <color rgb="000000FF"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <color rgb="0000B050"/>
-      <sz val="10"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -256,19 +231,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,168 +393,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -533,66 +508,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
+      <top style="thin">
+        <color rgb="FF00B050"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -622,6 +543,69 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -638,10 +622,10 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="5" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="13" fillId="16" fontId="16" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
@@ -650,137 +634,137 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="14" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="3" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="14" fillId="16" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="16" fontId="24" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="4" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="15" fillId="0" fontId="23" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="22" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="33" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="13" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="23" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="15" fillId="20" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="22" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="14" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="14" fillId="0" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="6" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="13" fillId="6" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="11" fillId="15" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="33" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="16" fillId="0" fontId="24" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -818,13 +802,19 @@
     <xf applyAlignment="1" borderId="7" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="28" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="29" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="30" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="31" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="8" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
@@ -1171,13 +1161,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0" outlineLevelRow="5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col customWidth="1" max="1" min="1" style="1" width="20.375"/>
     <col customWidth="1" max="2" min="2" style="1" width="12.25"/>
@@ -1186,7 +1176,8 @@
     <col customWidth="1" max="5" min="5" style="1" width="12.875"/>
     <col customWidth="1" max="6" min="6" style="1" width="27.625"/>
     <col customWidth="1" max="7" min="7" style="1" width="11.25"/>
-    <col customWidth="1" max="8" min="8" style="1" width="13.125"/>
+    <col customWidth="1" max="8" min="8" style="1" width="11.5"/>
+    <col customWidth="1" max="9" min="9" style="1" width="21"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1230,6 +1221,11 @@
           <t>IsExecute</t>
         </is>
       </c>
+      <c r="I1" s="9" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="40.5" r="2" s="1">
       <c r="A2" s="10" t="inlineStr">
@@ -1257,7 +1253,7 @@
       </c>
       <c r="F2" s="11" t="inlineStr">
         <is>
-          <t>liuhaotao1</t>
+          <t>liuhaotao1015</t>
         </is>
       </c>
       <c r="G2" s="11" t="inlineStr">
@@ -1267,7 +1263,12 @@
       </c>
       <c r="H2" s="11" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="I2" s="18" t="inlineStr">
+        <is>
+          <t>20210413 19:35:04-&gt;pass</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1298,7 @@
       </c>
       <c r="F3" s="11" t="inlineStr">
         <is>
-          <t>liuhaotao1</t>
+          <t>liuhaotao</t>
         </is>
       </c>
       <c r="G3" s="11" t="inlineStr">
@@ -1307,7 +1308,12 @@
       </c>
       <c r="H3" s="11" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="I3" s="19" t="inlineStr">
+        <is>
+          <t>20210413 19:35:15-&gt;fail</t>
         </is>
       </c>
     </row>
@@ -1337,7 +1343,7 @@
       </c>
       <c r="F4" s="11" t="inlineStr">
         <is>
-          <t>liuhaotao</t>
+          <t>liuhaotao1015</t>
         </is>
       </c>
       <c r="G4" s="11" t="inlineStr">
@@ -1347,7 +1353,12 @@
       </c>
       <c r="H4" s="11" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="I4" s="19" t="inlineStr">
+        <is>
+          <t>20210413 19:35:27-&gt;fail</t>
         </is>
       </c>
     </row>
@@ -1375,7 +1386,7 @@
       <c r="E5" s="14" t="n"/>
       <c r="F5" s="11" t="inlineStr">
         <is>
-          <t>liuhaotao</t>
+          <t>liuhaotao1015</t>
         </is>
       </c>
       <c r="G5" s="11" t="inlineStr">
@@ -1385,7 +1396,12 @@
       </c>
       <c r="H5" s="11" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="I5" s="19" t="inlineStr">
+        <is>
+          <t>20210413 19:35:35-&gt;fail</t>
         </is>
       </c>
     </row>
@@ -1421,17 +1437,34 @@
       </c>
       <c r="H6" s="11" t="inlineStr">
         <is>
-          <t>Y</t>
-        </is>
-      </c>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="I6" s="19" t="inlineStr">
+        <is>
+          <t>20210413 19:35:57-&gt;fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10"/>
+    <row r="11"/>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16">
+      <c r="G16" s="15" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation allowBlank="0" error="请填入P0,P1,P2" errorTitle="优先级" showErrorMessage="1" showInputMessage="1" sqref="D2 D3:D6" type="list">
       <formula1>"P0,P1,P2"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" error="请输入Y/N" errorTitle="是否执行" prompt="Y,N" promptTitle="请输入" showErrorMessage="1" showInputMessage="1" sqref="H2 H3:H6" type="list">
-      <formula1>"Y,N"</formula1>
+    <dataValidation allowBlank="0" error="yes or no" errorTitle="是否执行" prompt="yes or no" promptTitle="请输入" showErrorMessage="1" showInputMessage="1" sqref="H2 H3:H6" type="list">
+      <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1447,11 +1480,11 @@
   </sheetPr>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col customWidth="1" max="1" min="1" style="1" width="24.375"/>
     <col customWidth="1" max="2" min="2" style="1" width="21.25"/>
@@ -1473,7 +1506,7 @@
       <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>20210413 14:20:44-&gt;pass</t>
         </is>
@@ -1483,7 +1516,7 @@
       <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="16" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>20210413 14:20:44-&gt;fail</t>
         </is>
@@ -1493,7 +1526,7 @@
       <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="21" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>20210413 14:20:44-&gt;pass</t>
         </is>
@@ -1503,7 +1536,7 @@
       <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="16" t="inlineStr">
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>20210413 14:20:45-&gt;fail</t>
         </is>
@@ -1513,7 +1546,7 @@
       <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="21" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>20210413 14:20:45-&gt;pass</t>
         </is>
@@ -1523,7 +1556,7 @@
       <c r="A7" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="16" t="inlineStr">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>20210413 14:20:45-&gt;fail</t>
         </is>
@@ -1533,7 +1566,7 @@
       <c r="A8" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="21" t="inlineStr">
+      <c r="B8" s="4" t="inlineStr">
         <is>
           <t>20210413 14:20:45-&gt;pass</t>
         </is>
@@ -1543,7 +1576,7 @@
       <c r="A9" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="16" t="inlineStr">
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>20210413 14:20:45-&gt;fail</t>
         </is>
@@ -1553,7 +1586,7 @@
       <c r="A10" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="21" t="inlineStr">
+      <c r="B10" s="4" t="inlineStr">
         <is>
           <t>20210413 14:20:45-&gt;pass</t>
         </is>
@@ -1563,7 +1596,7 @@
       <c r="A11" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="16" t="inlineStr">
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>20210413 14:20:45-&gt;fail</t>
         </is>
@@ -1573,7 +1606,7 @@
       <c r="A12" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="21" t="inlineStr">
+      <c r="B12" s="4" t="inlineStr">
         <is>
           <t>20210413 14:20:45-&gt;pass</t>
         </is>
@@ -1583,7 +1616,7 @@
       <c r="A13" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="16" t="inlineStr">
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>20210413 14:20:45-&gt;fail</t>
         </is>
@@ -1593,7 +1626,7 @@
       <c r="A14" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="21" t="inlineStr">
+      <c r="B14" s="4" t="inlineStr">
         <is>
           <t>20210413 14:20:45-&gt;pass</t>
         </is>
@@ -1603,7 +1636,7 @@
       <c r="A15" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="16" t="inlineStr">
+      <c r="B15" s="5" t="inlineStr">
         <is>
           <t>20210413 14:20:45-&gt;fail</t>
         </is>
@@ -1613,7 +1646,7 @@
       <c r="A16" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="21" t="inlineStr">
+      <c r="B16" s="4" t="inlineStr">
         <is>
           <t>20210413 14:20:45-&gt;pass</t>
         </is>
@@ -1623,7 +1656,7 @@
       <c r="A17" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="16" t="inlineStr">
+      <c r="B17" s="5" t="inlineStr">
         <is>
           <t>20210413 14:20:45-&gt;fail</t>
         </is>

--- a/data/Mes快速建模测试用例.xlsx
+++ b/data/Mes快速建模测试用例.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12540" windowWidth="28125"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11790" windowWidth="20325"/>
   </bookViews>
   <sheets>
     <sheet name="登录模块用例" sheetId="1" state="visible" r:id="rId1"/>
@@ -71,16 +71,29 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <color theme="3"/>
+      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -94,23 +107,16 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
+      <color theme="3"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -146,31 +152,48 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
       <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -183,29 +206,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <name val="Arial"/>
       <color rgb="0000B050"/>
       <sz val="10"/>
@@ -231,19 +231,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,37 +399,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,121 +411,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,41 +519,33 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,33 +576,41 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,10 +622,10 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="13" fillId="16" fontId="16" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="13" fillId="14" fontId="17" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
@@ -634,133 +634,133 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="22" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="11" fillId="9" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="16" fillId="30" fontId="23" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="13" fillId="30" fontId="24" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="15" fillId="22" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="29" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="23" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="15" fillId="20" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="22" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="14" fillId="0" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="14" fillId="0" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="6" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="13" fillId="6" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="15" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="33" fontId="9" numFmtId="0">
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="14" fillId="0" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="33" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="32" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="16" fillId="0" fontId="24" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="0" fillId="24" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -806,7 +806,7 @@
     <xf applyAlignment="1" borderId="6" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="6" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1164,7 +1164,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="I2" s="18" t="inlineStr">
         <is>
-          <t>20210413 19:35:04-&gt;pass</t>
+          <t>20210414 12:23:24-&gt;pass</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="I3" s="19" t="inlineStr">
         <is>
-          <t>20210413 19:35:15-&gt;fail</t>
+          <t>20210414 12:23:48-&gt;fail</t>
         </is>
       </c>
     </row>
@@ -1358,7 +1358,7 @@
       </c>
       <c r="I4" s="19" t="inlineStr">
         <is>
-          <t>20210413 19:35:27-&gt;fail</t>
+          <t>20210414 12:24:12-&gt;fail</t>
         </is>
       </c>
     </row>
@@ -1396,12 +1396,12 @@
       </c>
       <c r="H5" s="11" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I5" s="19" t="inlineStr">
         <is>
-          <t>20210413 19:35:35-&gt;fail</t>
+          <t>20210414 12:11:48-&gt;fail</t>
         </is>
       </c>
     </row>
@@ -1437,12 +1437,12 @@
       </c>
       <c r="H6" s="11" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I6" s="19" t="inlineStr">
         <is>
-          <t>20210413 19:35:57-&gt;fail</t>
+          <t>20210414 12:12:09-&gt;fail</t>
         </is>
       </c>
     </row>

--- a/data/Mes快速建模测试用例.xlsx
+++ b/data/Mes快速建模测试用例.xlsx
@@ -23,7 +23,7 @@
     <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ " numFmtId="166"/>
     <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="167"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -64,6 +64,52 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color theme="0"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -71,7 +117,30 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -93,21 +162,31 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -121,94 +200,10 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <color rgb="0000B050"/>
-      <sz val="10"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -231,12 +226,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -249,169 +406,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,35 +512,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,6 +532,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,6 +568,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -585,32 +595,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,10 +617,10 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="13" fillId="14" fontId="17" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="12" fillId="19" fontId="15" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
@@ -634,137 +629,137 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="22" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="9" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="16" fillId="29" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="33" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="16" fillId="30" fontId="23" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="13" fillId="30" fontId="24" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="15" fillId="22" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="14" fillId="0" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="13" fillId="0" fontId="23" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="13" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="4" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="12" fillId="4" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="11" fillId="14" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="14" fillId="0" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="15" fillId="0" fontId="22" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="24" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="28" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="33" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="24" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -810,9 +805,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="6" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1164,7 +1156,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1268,7 +1260,7 @@
       </c>
       <c r="I2" s="18" t="inlineStr">
         <is>
-          <t>20210414 12:23:24-&gt;pass</t>
+          <t>20210415 08:55:27-&gt;fail</t>
         </is>
       </c>
     </row>
@@ -1308,10 +1300,10 @@
       </c>
       <c r="H3" s="11" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="I3" s="19" t="inlineStr">
+          <t>no</t>
+        </is>
+      </c>
+      <c r="I3" s="17" t="inlineStr">
         <is>
           <t>20210414 12:23:48-&gt;fail</t>
         </is>
@@ -1353,10 +1345,10 @@
       </c>
       <c r="H4" s="11" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="I4" s="19" t="inlineStr">
+          <t>no</t>
+        </is>
+      </c>
+      <c r="I4" s="17" t="inlineStr">
         <is>
           <t>20210414 12:24:12-&gt;fail</t>
         </is>
@@ -1399,7 +1391,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="I5" s="19" t="inlineStr">
+      <c r="I5" s="17" t="inlineStr">
         <is>
           <t>20210414 12:11:48-&gt;fail</t>
         </is>
@@ -1440,7 +1432,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="I6" s="19" t="inlineStr">
+      <c r="I6" s="17" t="inlineStr">
         <is>
           <t>20210414 12:12:09-&gt;fail</t>
         </is>

--- a/data/Mes快速建模测试用例.xlsx
+++ b/data/Mes快速建模测试用例.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11790" windowWidth="20325"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12540" windowWidth="28125"/>
   </bookViews>
   <sheets>
     <sheet name="登录模块用例" sheetId="1" state="visible" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ " numFmtId="166"/>
     <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="167"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -71,8 +71,73 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <b val="1"/>
       <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -103,21 +168,16 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -132,43 +192,6 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <i val="1"/>
       <color rgb="FF7F7F7F"/>
       <sz val="11"/>
@@ -180,29 +203,6 @@
       <color rgb="FF800080"/>
       <sz val="11"/>
       <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -210,6 +210,11 @@
       <color rgb="00FF0000"/>
       <sz val="10"/>
     </font>
+    <font>
+      <name val="Arial"/>
+      <color rgb="0000B050"/>
+      <sz val="10"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -226,25 +231,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -256,157 +387,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,23 +535,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,11 +565,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,8 +583,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,17 +600,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,149 +622,149 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="12" fillId="18" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="10" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="12" fillId="19" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="16" fillId="29" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="33" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="24" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="13" fillId="22" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="23" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="4" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="12" fillId="4" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="14" fontId="14" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="23" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="14" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="8" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="12" fillId="8" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="16" fillId="33" fontId="22" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="15" fillId="0" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="3" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="14" fillId="0" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="15" fillId="0" fontId="22" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="24" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="24" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="12" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -798,13 +803,16 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="6" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="6" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1156,7 +1164,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1260,7 +1268,7 @@
       </c>
       <c r="I2" s="18" t="inlineStr">
         <is>
-          <t>20210415 08:55:27-&gt;fail</t>
+          <t>20210415 17:10:31-&gt;fail</t>
         </is>
       </c>
     </row>
@@ -1300,12 +1308,12 @@
       </c>
       <c r="H3" s="11" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="I3" s="17" t="inlineStr">
-        <is>
-          <t>20210414 12:23:48-&gt;fail</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="I3" s="19" t="inlineStr">
+        <is>
+          <t>20210415 17:10:54-&gt;pass</t>
         </is>
       </c>
     </row>
@@ -1348,7 +1356,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="I4" s="17" t="inlineStr">
+      <c r="I4" s="16" t="inlineStr">
         <is>
           <t>20210414 12:24:12-&gt;fail</t>
         </is>
@@ -1391,7 +1399,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="I5" s="17" t="inlineStr">
+      <c r="I5" s="16" t="inlineStr">
         <is>
           <t>20210414 12:11:48-&gt;fail</t>
         </is>
@@ -1432,7 +1440,7 @@
           <t>no</t>
         </is>
       </c>
-      <c r="I6" s="17" t="inlineStr">
+      <c r="I6" s="16" t="inlineStr">
         <is>
           <t>20210414 12:12:09-&gt;fail</t>
         </is>
@@ -1452,11 +1460,11 @@
     </row>
   </sheetData>
   <dataValidations count="2">
+    <dataValidation allowBlank="0" error="yes or no" errorTitle="是否执行" prompt="yes or no" promptTitle="请输入" showErrorMessage="1" showInputMessage="1" sqref="H2 H3:H6" type="list">
+      <formula1>"yes,no"</formula1>
+    </dataValidation>
     <dataValidation allowBlank="0" error="请填入P0,P1,P2" errorTitle="优先级" showErrorMessage="1" showInputMessage="1" sqref="D2 D3:D6" type="list">
       <formula1>"P0,P1,P2"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="0" error="yes or no" errorTitle="是否执行" prompt="yes or no" promptTitle="请输入" showErrorMessage="1" showInputMessage="1" sqref="H2 H3:H6" type="list">
-      <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/data/Mes快速建模测试用例.xlsx
+++ b/data/Mes快速建模测试用例.xlsx
@@ -1268,7 +1268,7 @@
       </c>
       <c r="I2" s="18" t="inlineStr">
         <is>
-          <t>20210415 17:10:31-&gt;fail</t>
+          <t>20210415 17:52:49-&gt;fail</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="I3" s="19" t="inlineStr">
         <is>
-          <t>20210415 17:10:54-&gt;pass</t>
+          <t>20210415 17:52:39-&gt;pass</t>
         </is>
       </c>
     </row>
